--- a/Resultados/Material/Xception/Tentativa 1.xlsx
+++ b/Resultados/Material/Xception/Tentativa 1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr codeName="EsteLivro" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Resultados\Material\Xception\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B028CC-2B3A-44E9-B47B-D8970CB1A669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3538826-157D-46F0-882F-DD79C3BE6129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{44EB1693-29A4-4AD6-9832-A8AEAD2DC94E}"/>
   </bookViews>
@@ -509,6 +509,8 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -533,102 +535,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -703,6 +615,94 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
@@ -822,14 +822,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>496600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -858,8 +858,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="184150"/>
-          <a:ext cx="7772400" cy="3886200"/>
+          <a:off x="0" y="1"/>
+          <a:ext cx="6592600" cy="3295649"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1205,23 +1205,23 @@
   <autoFilter ref="A1:J4" xr:uid="{05CD79ED-E271-418B-AE5D-0CEC67D117D8}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{0BC8D92E-F05A-4765-ADE7-158957752698}" name="Classe" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{158B1DC5-8A42-4E97-A9C4-3F00630EA162}" name="Accuracy" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{C65D27B5-BF2B-480F-9245-88EBC462C418}" name="Precision" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{2F039AB7-CAFE-4D33-8E3F-DDB0554402B9}" name="Recall" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{E8A788D3-B0FB-4153-AC29-EB77EB842308}" name="F1 Score" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{76122F43-3076-419C-936F-1BAB3AB79795}" name="Qtd" dataDxfId="8">
+    <tableColumn id="2" xr3:uid="{158B1DC5-8A42-4E97-A9C4-3F00630EA162}" name="Accuracy" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{C65D27B5-BF2B-480F-9245-88EBC462C418}" name="Precision" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{2F039AB7-CAFE-4D33-8E3F-DDB0554402B9}" name="Recall" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{E8A788D3-B0FB-4153-AC29-EB77EB842308}" name="F1 Score" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{76122F43-3076-419C-936F-1BAB3AB79795}" name="Qtd" dataDxfId="4">
       <calculatedColumnFormula>'Matriz Confusão 2'!F3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{ED69C583-BA02-4717-B168-089B7EA09073}" name="Exatidão" dataDxfId="7">
+    <tableColumn id="7" xr3:uid="{ED69C583-BA02-4717-B168-089B7EA09073}" name="Exatidão" dataDxfId="3">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(B2&lt;=1,B2&gt;=0.95),"Muito Alta",AND(B2&lt;0.95,B2&gt;=0.9),"Alta",AND(B2&lt;0.9,B2&gt;=0.7),"Boa",AND(B2&lt;0.7,B2&gt;=0.5),"Médio",AND(B2&lt;0.5,B2&gt;=0.25),"Baixo",AND(B2&lt;0.25,B2&gt;0),"Muito Baixo",B2=0,"Zero")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{52506CAA-318D-400D-AA3D-9DD38E4BE67E}" name="Precisão" dataDxfId="6">
+    <tableColumn id="8" xr3:uid="{52506CAA-318D-400D-AA3D-9DD38E4BE67E}" name="Precisão" dataDxfId="2">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(C2&lt;=1,C2&gt;=0.95),"Muito Alta",AND(C2&lt;0.95,C2&gt;=0.9),"Alta",AND(C2&lt;0.9,C2&gt;=0.7),"Boa",AND(C2&lt;0.7,C2&gt;=0.5),"Médio",AND(C2&lt;0.5,C2&gt;=0.25),"Baixo",AND(C2&lt;0.25,C2&gt;0),"Muito Baixo",C2=0,"Zero")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{80EB9D07-1FE1-4C36-89EB-4BFB293D3A96}" name="Recuperação" dataDxfId="5">
+    <tableColumn id="9" xr3:uid="{80EB9D07-1FE1-4C36-89EB-4BFB293D3A96}" name="Recuperação" dataDxfId="1">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(D2&lt;=1,D2&gt;=0.95),"Muito Alta",AND(D2&lt;0.95,D2&gt;=0.9),"Alta",AND(D2&lt;0.9,D2&gt;=0.7),"Boa",AND(D2&lt;0.7,D2&gt;=0.5),"Médio",AND(D2&lt;0.5,D2&gt;=0.25),"Baixo",AND(D2&lt;0.25,D2&gt;0),"Muito Baixo",D2=0,"Zero")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{3B26B576-C152-418D-BC1D-A627F1BEAA9C}" name="F1" dataDxfId="4">
+    <tableColumn id="10" xr3:uid="{3B26B576-C152-418D-BC1D-A627F1BEAA9C}" name="F1" dataDxfId="0">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(E2&lt;=1,E2&gt;=0.95),"Muito Alta",AND(E2&lt;0.95,E2&gt;=0.9),"Alta",AND(E2&lt;0.9,E2&gt;=0.7),"Boa",AND(E2&lt;0.7,E2&gt;=0.5),"Médio",AND(E2&lt;0.5,E2&gt;=0.25),"Baixo",AND(E2&lt;0.25,E2&gt;0),"Muito Baixo",E2=0,"Zero")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1549,8 +1549,8 @@
   <sheetPr codeName="Folha1"/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E2" activeCellId="3" sqref="B2 C11 D6 E2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1580,16 +1580,16 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="54">
+      <c r="B2" s="46">
         <v>0.97807574272155762</v>
       </c>
-      <c r="C2" s="53">
+      <c r="C2" s="45">
         <v>0.90981227159500122</v>
       </c>
-      <c r="D2" s="53">
+      <c r="D2" s="45">
         <v>0.40822601318359381</v>
       </c>
-      <c r="E2" s="54">
+      <c r="E2" s="46">
         <v>0.94728684425354004</v>
       </c>
     </row>
@@ -1654,10 +1654,10 @@
       <c r="C6" s="2">
         <v>0.92316627502441406</v>
       </c>
-      <c r="D6" s="54">
+      <c r="D6" s="46">
         <v>3.2605690956115718</v>
       </c>
-      <c r="E6" s="53">
+      <c r="E6" s="45">
         <v>0.44961240887641912</v>
       </c>
     </row>
@@ -1733,10 +1733,10 @@
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="53">
+      <c r="B11" s="45">
         <v>0.4145047664642334</v>
       </c>
-      <c r="C11" s="54">
+      <c r="C11" s="46">
         <v>0.93710082769393921</v>
       </c>
       <c r="D11" s="2">
@@ -1750,23 +1750,23 @@
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="45">
+      <c r="B12" s="47">
         <v>1.7580696344375599</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="45">
+      <c r="B13" s="47">
         <v>0.64605873823165805</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
@@ -2095,8 +2095,8 @@
   <sheetPr codeName="Folha2"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2112,7 +2112,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2137,11 +2137,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C2" s="39">
@@ -2155,7 +2155,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="47" t="str">
+      <c r="A3" s="49" t="str">
         <f>"Verdadeiro"</f>
         <v>Verdadeiro</v>
       </c>
@@ -2180,7 +2180,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="47"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -2202,7 +2202,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="47"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -2259,7 +2259,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2267,15 +2267,16 @@
     <col min="1" max="1" width="8.6328125" style="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.6328125" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6328125" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.26953125" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.90625" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="26" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.54296875" customWidth="1"/>
     <col min="7" max="7" width="6.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1796875" style="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.7265625" style="9"/>
     <col min="10" max="10" width="3.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.6328125" style="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="4.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6328125" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.36328125" style="9" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="8.7265625" style="9"/>
   </cols>
   <sheetData>
@@ -2296,14 +2297,14 @@
       <c r="H1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
     </row>
     <row r="2" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="49" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="22">
@@ -2342,7 +2343,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="47"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="18">
         <v>0</v>
       </c>
@@ -2366,7 +2367,7 @@
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="47"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="18">
         <v>7</v>
       </c>
@@ -2397,7 +2398,7 @@
       <c r="K5" s="9"/>
     </row>
     <row r="6" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="52" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="29">
@@ -2417,7 +2418,7 @@
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="51"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="18">
         <v>6</v>
       </c>
@@ -2435,7 +2436,7 @@
       <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="52"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="18">
         <v>5</v>
       </c>
@@ -2458,7 +2459,7 @@
       <c r="E9" s="24"/>
     </row>
     <row r="10" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="50" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="22">
@@ -2477,7 +2478,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="48"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="18">
         <v>209</v>
       </c>
@@ -2494,7 +2495,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="48"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="18">
         <v>2</v>
       </c>
@@ -2534,25 +2535,25 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G4" sqref="G4"/>
+      <selection pane="topRight" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.54296875" style="33" customWidth="1"/>
     <col min="7" max="7" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7265625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="105.1796875" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.08984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.08984375" style="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>30</v>
       </c>
@@ -2585,7 +2586,7 @@
       </c>
       <c r="K1"/>
     </row>
-    <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="15">
         <v>0</v>
       </c>
@@ -2595,7 +2596,7 @@
       <c r="C2" s="2">
         <v>6.5217391304347824E-2</v>
       </c>
-      <c r="D2" s="54">
+      <c r="D2" s="46">
         <v>0.68181818181818177</v>
       </c>
       <c r="E2" s="2">
@@ -2623,20 +2624,20 @@
       </c>
       <c r="K2"/>
     </row>
-    <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="54">
+      <c r="B3" s="46">
         <v>0.97990726429675423</v>
       </c>
-      <c r="C3" s="53">
-        <v>0</v>
-      </c>
-      <c r="D3" s="53">
-        <v>0</v>
-      </c>
-      <c r="E3" s="53">
+      <c r="C3" s="45">
+        <v>0</v>
+      </c>
+      <c r="D3" s="45">
+        <v>0</v>
+      </c>
+      <c r="E3" s="45">
         <v>0</v>
       </c>
       <c r="F3" s="32">
@@ -2661,20 +2662,20 @@
       </c>
       <c r="K3"/>
     </row>
-    <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="15">
         <v>2</v>
       </c>
-      <c r="B4" s="53">
+      <c r="B4" s="45">
         <v>0.65533230293663058</v>
       </c>
-      <c r="C4" s="54">
+      <c r="C4" s="46">
         <v>0.97108433734939759</v>
       </c>
       <c r="D4" s="2">
         <v>0.65635179153094458</v>
       </c>
-      <c r="E4" s="54">
+      <c r="E4" s="46">
         <v>0.78328474246841584</v>
       </c>
       <c r="F4" s="32">
@@ -2699,7 +2700,7 @@
       </c>
       <c r="K4"/>
     </row>
-    <row r="5" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2739,7 +2740,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
@@ -2779,7 +2780,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>0</v>
       </c>
@@ -2819,7 +2820,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>1</v>
       </c>
@@ -2859,7 +2860,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>8</v>
       </c>
@@ -2899,7 +2900,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>9</v>
       </c>
@@ -2940,7 +2941,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
       <c r="G11">
         <f>SUM(G5:G10)+B7</f>
